--- a/metric-calculate-config/src/main/resources/excel/template/dervie_template.xlsx
+++ b/metric-calculate-config/src/main/resources/excel/template/dervie_template.xlsx
@@ -7,15 +7,16 @@
     <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="derive_sample1" sheetId="13" r:id="rId1"/>
-    <sheet name="derive_sample2" sheetId="14" r:id="rId2"/>
+    <sheet name="derive_template" sheetId="15" r:id="rId1"/>
+    <sheet name="derive_sample1" sheetId="13" r:id="rId2"/>
+    <sheet name="derive_sample2" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="85">
   <si>
     <t>基本信息</t>
   </si>
@@ -23,88 +24,181 @@
     <t>派生指标名称</t>
   </si>
   <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>宽表名称</t>
+  </si>
+  <si>
+    <t>是否包含当前笔</t>
+  </si>
+  <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>精度类型</t>
+  </si>
+  <si>
+    <t>精度长度</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>时间字段</t>
+  </si>
+  <si>
+    <t>宽表字段名称</t>
+  </si>
+  <si>
+    <t>时间格式</t>
+  </si>
+  <si>
+    <t>维度字段列表</t>
+  </si>
+  <si>
+    <t>维度名称</t>
+  </si>
+  <si>
+    <t>前置过滤条件</t>
+  </si>
+  <si>
+    <t>表达式</t>
+  </si>
+  <si>
+    <t>Aviator函数实例列表</t>
+  </si>
+  <si>
+    <t>窗口参数</t>
+  </si>
+  <si>
+    <t>窗口类型</t>
+  </si>
+  <si>
+    <t>时间周期</t>
+  </si>
+  <si>
+    <t>时间单位</t>
+  </si>
+  <si>
+    <t>滑动计数窗口大小</t>
+  </si>
+  <si>
+    <t>会话窗口间隔</t>
+  </si>
+  <si>
+    <t>状态窗口表达式列表</t>
+  </si>
+  <si>
+    <t>事件模式表达式列表</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>匹配表达式</t>
+  </si>
+  <si>
+    <t>聚合函数参数</t>
+  </si>
+  <si>
+    <t>聚合函数名称</t>
+  </si>
+  <si>
+    <t>JSON参数</t>
+  </si>
+  <si>
+    <t>数值型</t>
+  </si>
+  <si>
+    <t>度量字段表达式</t>
+  </si>
+  <si>
+    <t>多字段度量字段表达式</t>
+  </si>
+  <si>
+    <t>对象型</t>
+  </si>
+  <si>
+    <t>比较字段列表</t>
+  </si>
+  <si>
+    <t>保留字段表达式</t>
+  </si>
+  <si>
+    <t>集合型</t>
+  </si>
+  <si>
+    <t>去重字段列表</t>
+  </si>
+  <si>
+    <t>排序字段表达式列表</t>
+  </si>
+  <si>
+    <t>是否升序</t>
+  </si>
+  <si>
+    <t>排序表达式</t>
+  </si>
+  <si>
+    <t>映射型</t>
+  </si>
+  <si>
+    <t>基本聚合函数参数</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>混合型</t>
+  </si>
+  <si>
+    <t>计算表达式</t>
+  </si>
+  <si>
+    <t>混合参数参数列表</t>
+  </si>
+  <si>
+    <t>基本聚合类型参数</t>
+  </si>
+  <si>
     <t>test_cov</t>
   </si>
   <si>
-    <t>中文名称</t>
-  </si>
-  <si>
     <t>测试协方差</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>宽表名称</t>
-  </si>
-  <si>
     <t>trade_detail2</t>
   </si>
   <si>
-    <t>是否包含当前笔</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>计量单位</t>
-  </si>
-  <si>
-    <t>精度类型</t>
-  </si>
-  <si>
     <t>NOT_HANDLE</t>
   </si>
   <si>
-    <t>精度长度</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>时间字段</t>
-  </si>
-  <si>
-    <t>宽表字段名称</t>
-  </si>
-  <si>
     <t>trans_timestamp</t>
   </si>
   <si>
-    <t>时间格式</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>维度字段列表</t>
-  </si>
-  <si>
-    <t>维度名称</t>
-  </si>
-  <si>
     <t>account_no_out</t>
   </si>
   <si>
     <t>account_no_in</t>
   </si>
   <si>
-    <t>前置过滤条件</t>
-  </si>
-  <si>
-    <t>表达式</t>
-  </si>
-  <si>
     <t>amount &gt; 100</t>
-  </si>
-  <si>
-    <t>Aviator函数实例列表</t>
   </si>
   <si>
     <t>test_add1
@@ -115,36 +209,15 @@
 {"length":10}</t>
   </si>
   <si>
-    <t>窗口参数</t>
-  </si>
-  <si>
-    <t>窗口类型</t>
-  </si>
-  <si>
     <t>TUMBLING_TIME_WINDOW</t>
   </si>
   <si>
-    <t>时间周期</t>
-  </si>
-  <si>
-    <t>时间单位</t>
-  </si>
-  <si>
     <t>HOUR</t>
   </si>
   <si>
-    <t>滑动计数窗口大小</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
-    <t>会话窗口间隔</t>
-  </si>
-  <si>
-    <t>状态窗口表达式列表</t>
-  </si>
-  <si>
     <t>status1</t>
   </si>
   <si>
@@ -157,15 +230,6 @@
     <t>status2</t>
   </si>
   <si>
-    <t>事件模式表达式列表</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>匹配表达式</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -181,82 +245,19 @@
     <t>amount &gt; 300</t>
   </si>
   <si>
-    <t>聚合函数参数</t>
-  </si>
-  <si>
-    <t>聚合函数名称</t>
-  </si>
-  <si>
     <t>LISTFIELD</t>
   </si>
   <si>
-    <t>JSON参数</t>
-  </si>
-  <si>
     <t>{"limit":10}</t>
   </si>
   <si>
-    <t>数值型</t>
-  </si>
-  <si>
-    <t>度量字段表达式</t>
-  </si>
-  <si>
-    <t>多字段度量字段表达式</t>
-  </si>
-  <si>
-    <t>对象型</t>
-  </si>
-  <si>
-    <t>比较字段列表</t>
-  </si>
-  <si>
-    <t>保留字段表达式</t>
-  </si>
-  <si>
-    <t>集合型</t>
-  </si>
-  <si>
-    <t>去重字段列表</t>
-  </si>
-  <si>
-    <t>排序字段表达式列表</t>
-  </si>
-  <si>
-    <t>是否升序</t>
-  </si>
-  <si>
-    <t>排序表达式</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>映射型</t>
-  </si>
-  <si>
-    <t>基本聚合函数参数</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
-    <t>参数</t>
-  </si>
-  <si>
     <t>test_add</t>
-  </si>
-  <si>
-    <t>混合型</t>
-  </si>
-  <si>
-    <t>计算表达式</t>
-  </si>
-  <si>
-    <t>混合参数参数列表</t>
-  </si>
-  <si>
-    <t>基本聚合类型参数</t>
   </si>
   <si>
     <t>max_timestamp</t>
@@ -1183,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1419,6 +1420,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1954,10 +1958,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1989,86 +1993,72 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" ht="16.2" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="16.2" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="16.2" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.2" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" ht="16.2" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" ht="16.2" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" ht="16.2" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" ht="16.2" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" ht="14.4" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2080,25 +2070,21 @@
     </row>
     <row r="14" ht="16.2" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" ht="16.2" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" ht="14.4" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -2110,34 +2096,763 @@
     </row>
     <row r="18" ht="16.2" spans="1:3">
       <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" ht="16.2" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+    </row>
+    <row r="23" ht="16.2" spans="1:3">
+      <c r="A23" s="47" t="s">
         <v>18</v>
       </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" ht="16.2" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" ht="16.2" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" ht="16.2" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" ht="16.2" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" ht="16.2" spans="1:3">
+      <c r="A30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" ht="16.2" spans="1:5">
+      <c r="A31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" ht="16.2" spans="1:7">
+      <c r="A32" s="23"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" ht="16.2" spans="1:6">
+      <c r="A33" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" ht="16.2" spans="1:6">
+      <c r="A34" s="26"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" ht="16.2" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" ht="16.2" spans="1:3">
+      <c r="A39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+    </row>
+    <row r="40" ht="16.2" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="45"/>
+    </row>
+    <row r="41" ht="16.2" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+    </row>
+    <row r="42" ht="16.2" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" ht="16.2" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" ht="16.2" spans="1:5">
+      <c r="A44" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="23"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+    </row>
+    <row r="46" ht="16.2" spans="1:4">
+      <c r="A46" s="23"/>
+      <c r="B46" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="16.2" spans="1:5">
+      <c r="A47" s="75"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" ht="16.2" spans="1:5">
+      <c r="A48" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" ht="16.2" spans="1:6">
+      <c r="A49" s="48"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" ht="16.2" spans="1:5">
+      <c r="A50" s="48"/>
+      <c r="B50" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="45"/>
+    </row>
+    <row r="51" ht="18" customHeight="1" spans="1:4">
+      <c r="A51" s="48"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="42"/>
+    </row>
+    <row r="52" ht="16.2" spans="1:6">
+      <c r="A52" s="48"/>
+      <c r="B52" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="29"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" ht="16.2" spans="1:6">
+      <c r="A53" s="48"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" ht="16.2" spans="1:6">
+      <c r="A54" s="48"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" ht="16.2" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" ht="16.2" spans="1:6">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="42"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" ht="16.2" spans="1:6">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" ht="16.2" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" ht="16.2" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" ht="16.2" spans="1:9">
+      <c r="A61" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" ht="16.2" spans="1:9">
+      <c r="A62" s="48"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" ht="16.2" spans="1:9">
+      <c r="A63" s="48"/>
+      <c r="B63" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" ht="16.2" spans="1:9">
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" ht="16.2" spans="1:9">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+    </row>
+    <row r="82" ht="16.2" spans="1:1">
+      <c r="A82" s="61"/>
+    </row>
+    <row r="83" ht="16.2" spans="1:1">
+      <c r="A83" s="61"/>
+    </row>
+    <row r="84" ht="16.2" spans="1:1">
+      <c r="A84" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="A36:C37"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"NOT_HANDLE,ROUNDING,KEEP_UP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>"TUMBLING_TIME_WINDOW,SLIDING_TIME_WINDOW,SLIDING_COUNT_WINDOW,STATUS_WINDOW,GLOBAL_WINDOW,SESSION_WINDOW,EVENT_WINDOW"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>"MILLS,SECOND,MINUTE,HOUR,DAY,WEEK,MONTH,QUARTER,YEAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="33.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.4" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="14.4" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" ht="16.2" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="16.2" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="16.2" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="16.2" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="16.2" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="16.2" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="16.2" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="14.4" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" ht="16.2" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="16.2" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" ht="16.2" spans="1:3">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" ht="14.4" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2149,32 +2864,32 @@
     </row>
     <row r="23" ht="16.2" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" ht="16.2" spans="1:3">
+    <row r="24" spans="1:3">
       <c r="A24" s="47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C24" s="63"/>
     </row>
     <row r="25" ht="16.2" spans="1:3">
       <c r="A25" s="60"/>
       <c r="B25" s="62" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C25" s="63"/>
     </row>
     <row r="26" ht="14.4" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -2186,16 +2901,16 @@
     </row>
     <row r="28" ht="16.2" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" ht="16.2" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4">
         <v>10</v>
@@ -2204,40 +2919,40 @@
     </row>
     <row r="30" ht="16.2" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" ht="16.2" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5"/>
     </row>
     <row r="32" ht="16.2" spans="1:3">
       <c r="A32" s="19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C32" s="42"/>
     </row>
     <row r="33" ht="16.2" spans="1:5">
       <c r="A33" s="19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="22"/>
@@ -2245,10 +2960,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -2257,7 +2972,7 @@
       <c r="A35" s="23"/>
       <c r="B35" s="64"/>
       <c r="C35" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="24"/>
@@ -2267,10 +2982,10 @@
     <row r="36" ht="16.2" spans="1:7">
       <c r="A36" s="23"/>
       <c r="B36" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="24"/>
@@ -2279,16 +2994,16 @@
     </row>
     <row r="37" ht="16.2" spans="1:6">
       <c r="A37" s="26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="30"/>
@@ -2298,26 +3013,26 @@
       <c r="B38" s="67"/>
       <c r="C38" s="68"/>
       <c r="D38" s="69" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F38" s="30"/>
     </row>
     <row r="39" ht="16.2" spans="1:6">
       <c r="A39" s="26"/>
       <c r="B39" s="31" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C39" s="32">
         <v>0</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F39" s="33"/>
     </row>
@@ -2327,38 +3042,38 @@
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
       <c r="E40" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="26"/>
       <c r="B41" s="34" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C41" s="35">
         <v>10</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="34" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C42" s="35">
         <v>20</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E42" s="35"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="36" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
@@ -2370,34 +3085,34 @@
     </row>
     <row r="45" ht="16.2" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C45" s="42"/>
     </row>
     <row r="46" ht="16.2" spans="1:3">
       <c r="A46" s="19" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C46" s="44"/>
     </row>
     <row r="47" ht="16.2" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>28</v>
       </c>
       <c r="E47" s="45"/>
     </row>
@@ -2405,10 +3120,10 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E48" s="73"/>
     </row>
@@ -2417,20 +3132,20 @@
       <c r="B49" s="3"/>
       <c r="C49" s="60"/>
       <c r="D49" s="72" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E49" s="73"/>
     </row>
     <row r="50" ht="16.2" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E50" s="30"/>
     </row>
@@ -2438,10 +3153,10 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E51" s="74"/>
     </row>
@@ -2450,7 +3165,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="64"/>
       <c r="D52" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E52" s="22"/>
     </row>
@@ -2458,25 +3173,25 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E53" s="30"/>
     </row>
     <row r="54" ht="16.2" spans="1:5">
       <c r="A54" s="19" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E54" s="30"/>
     </row>
@@ -2484,10 +3199,10 @@
       <c r="A55" s="23"/>
       <c r="B55" s="25"/>
       <c r="C55" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E55" s="74"/>
     </row>
@@ -2496,7 +3211,7 @@
       <c r="B56" s="25"/>
       <c r="C56" s="64"/>
       <c r="D56" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E56" s="22"/>
     </row>
@@ -2504,32 +3219,32 @@
       <c r="A57" s="23"/>
       <c r="B57" s="25"/>
       <c r="C57" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" ht="16.2" spans="1:4">
       <c r="A58" s="23"/>
       <c r="B58" s="46" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="23"/>
       <c r="B59" s="25"/>
       <c r="C59" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2537,7 +3252,7 @@
       <c r="B60" s="25"/>
       <c r="C60" s="64"/>
       <c r="D60" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E60" s="22"/>
     </row>
@@ -2545,25 +3260,25 @@
       <c r="A61" s="75"/>
       <c r="B61" s="25"/>
       <c r="C61" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E61" s="30"/>
     </row>
     <row r="62" ht="16.2" spans="1:5">
       <c r="A62" s="47" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E62" s="30"/>
     </row>
@@ -2571,10 +3286,10 @@
       <c r="A63" s="48"/>
       <c r="B63" s="25"/>
       <c r="C63" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E63" s="74"/>
     </row>
@@ -2583,7 +3298,7 @@
       <c r="B64" s="25"/>
       <c r="C64" s="64"/>
       <c r="D64" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E64" s="22"/>
     </row>
@@ -2591,10 +3306,10 @@
       <c r="A65" s="48"/>
       <c r="B65" s="25"/>
       <c r="C65" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="25"/>
@@ -2602,13 +3317,13 @@
     <row r="66" ht="16.2" spans="1:5">
       <c r="A66" s="48"/>
       <c r="B66" s="49" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E66" s="45"/>
     </row>
@@ -2616,10 +3331,10 @@
       <c r="A67" s="48"/>
       <c r="B67" s="25"/>
       <c r="C67" s="47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D67" s="72" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:5">
@@ -2627,20 +3342,20 @@
       <c r="B68" s="25"/>
       <c r="C68" s="60"/>
       <c r="D68" s="72" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E68" s="25"/>
     </row>
     <row r="69" ht="16.2" spans="1:6">
       <c r="A69" s="48"/>
       <c r="B69" s="46" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="25"/>
@@ -2650,10 +3365,10 @@
       <c r="B70" s="25"/>
       <c r="C70" s="50"/>
       <c r="D70" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F70" s="25"/>
     </row>
@@ -2661,13 +3376,13 @@
       <c r="A71" s="48"/>
       <c r="B71" s="25"/>
       <c r="C71" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F71" s="25"/>
     </row>
@@ -2677,7 +3392,7 @@
       <c r="C72" s="21"/>
       <c r="D72" s="64"/>
       <c r="E72" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F72" s="25"/>
     </row>
@@ -2685,28 +3400,28 @@
       <c r="A73" s="48"/>
       <c r="B73" s="25"/>
       <c r="C73" s="42" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F73" s="25"/>
     </row>
     <row r="74" ht="16.2" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E74" s="51"/>
       <c r="F74" s="52"/>
@@ -2715,10 +3430,10 @@
       <c r="A75" s="3"/>
       <c r="B75" s="50"/>
       <c r="C75" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E75" s="51"/>
       <c r="F75" s="52"/>
@@ -2728,7 +3443,7 @@
       <c r="B76" s="50"/>
       <c r="C76" s="64"/>
       <c r="D76" s="42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E76" s="51"/>
       <c r="F76" s="52"/>
@@ -2737,10 +3452,10 @@
       <c r="A77" s="3"/>
       <c r="B77" s="50"/>
       <c r="C77" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E77" s="51"/>
       <c r="F77" s="52"/>
@@ -2748,13 +3463,13 @@
     <row r="78" ht="16.2" spans="1:6">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E78" s="45"/>
       <c r="F78" s="22"/>
@@ -2763,7 +3478,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="19" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="45"/>
@@ -2773,13 +3488,13 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2787,10 +3502,10 @@
       <c r="B81" s="3"/>
       <c r="C81" s="53"/>
       <c r="D81" s="47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E81" s="72" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2799,21 +3514,21 @@
       <c r="C82" s="53"/>
       <c r="D82" s="60"/>
       <c r="E82" s="72" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" ht="16.2" spans="1:9">
       <c r="A83" s="47" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B83" s="54" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="25"/>
@@ -2825,10 +3540,10 @@
       <c r="A84" s="48"/>
       <c r="B84" s="54"/>
       <c r="C84" s="47" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D84" s="62" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E84" s="63"/>
       <c r="F84" s="25"/>
@@ -2841,7 +3556,7 @@
       <c r="B85" s="54"/>
       <c r="C85" s="76"/>
       <c r="D85" s="77" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E85" s="78"/>
       <c r="F85" s="25"/>
@@ -2852,13 +3567,13 @@
     <row r="86" ht="16.2" spans="1:9">
       <c r="A86" s="48"/>
       <c r="B86" s="47" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D86" s="50" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E86" s="50"/>
       <c r="F86" s="50"/>
@@ -2871,13 +3586,13 @@
       <c r="B87" s="48"/>
       <c r="C87" s="55"/>
       <c r="D87" s="50" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E87" s="50" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G87" s="29"/>
       <c r="H87" s="25"/>
@@ -2890,10 +3605,10 @@
       <c r="D88" s="50"/>
       <c r="E88" s="50"/>
       <c r="F88" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
@@ -2908,13 +3623,13 @@
         <v>81</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F89" s="21" t="s">
         <v>82</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
@@ -2927,7 +3642,7 @@
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
       <c r="G90" s="59" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2940,13 +3655,13 @@
         <v>84</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F91" s="21" t="s">
         <v>82</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" ht="16.2" spans="1:1">
@@ -3062,13 +3777,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3101,76 +3816,76 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" ht="16.2" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="16.2" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="16.2" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.2" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" ht="16.2" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" ht="16.2" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" ht="16.2" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" ht="16.2" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -3179,7 +3894,7 @@
     </row>
     <row r="12" ht="14.4" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3191,25 +3906,25 @@
     </row>
     <row r="14" ht="16.2" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" ht="16.2" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" ht="14.4" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -3221,34 +3936,34 @@
     </row>
     <row r="18" ht="16.2" spans="1:3">
       <c r="A18" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" ht="14.4" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3260,16 +3975,16 @@
     </row>
     <row r="23" ht="16.2" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -3281,16 +3996,16 @@
     </row>
     <row r="26" ht="16.2" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" ht="16.2" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4">
         <v>10</v>
@@ -3299,37 +4014,37 @@
     </row>
     <row r="28" ht="16.2" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" ht="16.2" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" ht="16.2" spans="1:3">
       <c r="A30" s="19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C30" s="20"/>
     </row>
     <row r="31" ht="16.2" spans="1:4">
       <c r="A31" s="19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
@@ -3337,7 +4052,7 @@
     <row r="32" ht="16.2" spans="1:6">
       <c r="A32" s="23"/>
       <c r="B32" s="21" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="24"/>
@@ -3346,59 +4061,59 @@
     </row>
     <row r="33" ht="16.2" spans="1:5">
       <c r="A33" s="26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E33" s="30"/>
     </row>
     <row r="34" ht="16.2" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="31" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C34" s="32">
         <v>0</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26"/>
       <c r="B35" s="34" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C35" s="35">
         <v>10</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="26"/>
       <c r="B36" s="34" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C36" s="35">
         <v>20</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="36" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
@@ -3410,41 +4125,41 @@
     </row>
     <row r="39" ht="16.2" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C39" s="42"/>
     </row>
     <row r="40" ht="16.2" spans="1:3">
       <c r="A40" s="19" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C40" s="44"/>
     </row>
     <row r="41" ht="16.2" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>28</v>
       </c>
       <c r="D41" s="45"/>
     </row>
     <row r="42" ht="16.2" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D42" s="30"/>
     </row>
@@ -3452,19 +4167,19 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D43" s="30"/>
     </row>
     <row r="44" ht="16.2" spans="1:4">
       <c r="A44" s="19" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D44" s="30"/>
     </row>
@@ -3472,35 +4187,35 @@
       <c r="A45" s="23"/>
       <c r="B45" s="25"/>
       <c r="C45" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="23"/>
       <c r="B46" s="46" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="23"/>
       <c r="B47" s="25"/>
       <c r="C47" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D47" s="22"/>
     </row>
     <row r="48" ht="16.2" spans="1:4">
       <c r="A48" s="47" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B48" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>66</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>42</v>
       </c>
       <c r="D48" s="30"/>
     </row>
@@ -3508,7 +4223,7 @@
       <c r="A49" s="48"/>
       <c r="B49" s="25"/>
       <c r="C49" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="25"/>
@@ -3516,23 +4231,23 @@
     <row r="50" ht="16.2" spans="1:4">
       <c r="A50" s="48"/>
       <c r="B50" s="49" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D50" s="45"/>
     </row>
     <row r="51" ht="16.2" spans="1:5">
       <c r="A51" s="48"/>
       <c r="B51" s="46" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E51" s="25"/>
     </row>
@@ -3540,10 +4255,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="25"/>
       <c r="C52" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E52" s="25"/>
     </row>
@@ -3551,22 +4266,22 @@
       <c r="A53" s="48"/>
       <c r="B53" s="25"/>
       <c r="C53" s="42" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B54" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>66</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>42</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="52"/>
@@ -3575,7 +4290,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="50"/>
       <c r="C55" s="42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D55" s="51"/>
       <c r="E55" s="52"/>
@@ -3583,13 +4298,13 @@
     <row r="56" ht="16.2" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="22"/>
@@ -3598,7 +4313,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="19" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="45"/>
@@ -3608,21 +4323,21 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="59" ht="16.2" spans="1:7">
       <c r="A59" s="47" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -3632,13 +4347,13 @@
     <row r="60" ht="16.2" spans="1:8">
       <c r="A60" s="48"/>
       <c r="B60" s="47" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -3650,13 +4365,13 @@
       <c r="B61" s="48"/>
       <c r="C61" s="55"/>
       <c r="D61" s="50" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -3671,7 +4386,7 @@
         <v>81</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>82</v>
@@ -3689,7 +4404,7 @@
         <v>84</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>82</v>

--- a/metric-calculate-config/src/main/resources/excel/template/dervie_template.xlsx
+++ b/metric-calculate-config/src/main/resources/excel/template/dervie_template.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="derive_template" sheetId="15" r:id="rId1"/>
     <sheet name="derive_sample1" sheetId="13" r:id="rId2"/>
-    <sheet name="derive_sample2" sheetId="14" r:id="rId3"/>
+    <sheet name="时间窗口_数值型_度量字段表达式" sheetId="16" r:id="rId3"/>
+    <sheet name="derive_sample2" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="86">
   <si>
     <t>基本信息</t>
   </si>
@@ -162,7 +163,7 @@
     <t>计算表达式</t>
   </si>
   <si>
-    <t>混合参数参数列表</t>
+    <t>混合参数列表</t>
   </si>
   <si>
     <t>基本聚合类型参数</t>
@@ -258,6 +259,9 @@
   </si>
   <si>
     <t>test_add</t>
+  </si>
+  <si>
+    <t>混合参数参数列表</t>
   </si>
   <si>
     <t>max_timestamp</t>
@@ -1184,7 +1188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1311,9 +1315,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,24 +1327,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,12 +1340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1374,53 +1351,38 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1960,8 +1922,8 @@
   <sheetPr/>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2108,14 +2070,14 @@
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="14.4" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="14.4" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2124,24 +2086,24 @@
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" ht="16.2" spans="1:3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" s="53"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" ht="14.4" spans="1:3">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" ht="14.4" spans="1:3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -2178,8 +2140,8 @@
       <c r="A30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" ht="16.2" spans="1:5">
       <c r="A31" s="19" t="s">
@@ -2196,8 +2158,8 @@
     </row>
     <row r="32" ht="16.2" spans="1:7">
       <c r="A32" s="23"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -2207,10 +2169,10 @@
       <c r="A33" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="58" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="29" t="s">
@@ -2221,12 +2183,12 @@
     </row>
     <row r="34" ht="16.2" spans="1:6">
       <c r="A34" s="26"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69" t="s">
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="30"/>
@@ -2238,14 +2200,14 @@
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" ht="14.4" spans="1:3">
       <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="38"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="14.4" spans="1:3">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="41"/>
@@ -2254,15 +2216,15 @@
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" ht="16.2" spans="1:3">
       <c r="A39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
     </row>
     <row r="40" ht="16.2" spans="1:5">
       <c r="A40" s="3" t="s">
@@ -2274,17 +2236,17 @@
       <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="45"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" ht="16.2" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
     </row>
     <row r="42" ht="16.2" spans="1:5">
       <c r="A42" s="3"/>
@@ -2302,15 +2264,15 @@
     <row r="43" ht="16.2" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="30"/>
     </row>
     <row r="44" ht="16.2" spans="1:5">
       <c r="A44" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2324,12 +2286,12 @@
     <row r="45" spans="1:4">
       <c r="A45" s="23"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" ht="16.2" spans="1:4">
       <c r="A46" s="23"/>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2340,17 +2302,17 @@
       </c>
     </row>
     <row r="47" ht="16.2" spans="1:5">
-      <c r="A47" s="75"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="30"/>
     </row>
     <row r="48" ht="16.2" spans="1:5">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2362,38 +2324,38 @@
       <c r="E48" s="30"/>
     </row>
     <row r="49" ht="16.2" spans="1:6">
-      <c r="A49" s="48"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
     </row>
     <row r="50" ht="16.2" spans="1:5">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="45"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="44"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:4">
-      <c r="A51" s="48"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="42"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" ht="16.2" spans="1:6">
-      <c r="A52" s="48"/>
-      <c r="B52" s="46" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="29" t="s">
@@ -2403,9 +2365,9 @@
       <c r="F52" s="25"/>
     </row>
     <row r="53" ht="16.2" spans="1:6">
-      <c r="A53" s="48"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="25"/>
-      <c r="C53" s="50"/>
+      <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
         <v>17</v>
       </c>
@@ -2415,18 +2377,18 @@
       <c r="F53" s="25"/>
     </row>
     <row r="54" ht="16.2" spans="1:6">
-      <c r="A54" s="48"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="25"/>
     </row>
     <row r="55" ht="16.2" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2435,16 +2397,16 @@
       <c r="D55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="51"/>
-      <c r="F55" s="52"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" ht="16.2" spans="1:6">
       <c r="A57" s="3"/>
@@ -2454,8 +2416,8 @@
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="45"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" ht="16.2" spans="1:6">
@@ -2465,34 +2427,34 @@
         <v>45</v>
       </c>
       <c r="D58" s="20"/>
-      <c r="E58" s="45"/>
+      <c r="E58" s="44"/>
       <c r="F58" s="22"/>
     </row>
     <row r="59" ht="16.2" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="42"/>
+      <c r="E59" s="21"/>
     </row>
     <row r="60" ht="16.2" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="47" t="s">
+      <c r="C60" s="46"/>
+      <c r="D60" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="20"/>
     </row>
     <row r="61" ht="16.2" spans="1:9">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -2506,9 +2468,9 @@
       <c r="I61" s="25"/>
     </row>
     <row r="62" ht="16.2" spans="1:9">
-      <c r="A62" s="48"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="47" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="4"/>
@@ -2519,30 +2481,30 @@
       <c r="I62" s="25"/>
     </row>
     <row r="63" ht="16.2" spans="1:9">
-      <c r="A63" s="48"/>
-      <c r="B63" s="47" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
     </row>
     <row r="64" ht="16.2" spans="1:9">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="50" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="29" t="s">
@@ -2553,11 +2515,11 @@
       <c r="I64" s="25"/>
     </row>
     <row r="65" ht="16.2" spans="1:9">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
         <v>17</v>
       </c>
@@ -2568,22 +2530,22 @@
       <c r="I65" s="25"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="82" ht="16.2" spans="1:1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="52"/>
     </row>
     <row r="83" ht="16.2" spans="1:1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="52"/>
     </row>
     <row r="84" ht="16.2" spans="1:1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -2671,8 +2633,8 @@
   <sheetPr/>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2872,20 +2834,20 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="63"/>
-    </row>
-    <row r="25" ht="16.2" spans="1:3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="62" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" ht="14.4" spans="1:3">
       <c r="A26" s="7" t="s">
@@ -2939,10 +2901,10 @@
       <c r="A32" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" ht="16.2" spans="1:5">
       <c r="A33" s="19" t="s">
@@ -2962,7 +2924,7 @@
       <c r="B34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="22"/>
@@ -2970,8 +2932,8 @@
     </row>
     <row r="35" ht="16.2" spans="1:7">
       <c r="A35" s="23"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="42" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="22"/>
@@ -2981,10 +2943,10 @@
     </row>
     <row r="36" ht="16.2" spans="1:7">
       <c r="A36" s="23"/>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="22"/>
@@ -2996,10 +2958,10 @@
       <c r="A37" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="58" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="29" t="s">
@@ -3010,12 +2972,12 @@
     </row>
     <row r="38" ht="16.2" spans="1:6">
       <c r="A38" s="26"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69" t="s">
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="30"/>
@@ -3031,17 +2993,17 @@
       <c r="D39" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="26"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="42" t="s">
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3071,7 +3033,7 @@
       </c>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" ht="14.4" spans="1:3">
       <c r="A43" s="36" t="s">
         <v>29</v>
       </c>
@@ -3087,19 +3049,19 @@
       <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="42"/>
+      <c r="C45" s="21"/>
     </row>
     <row r="46" ht="16.2" spans="1:3">
       <c r="A46" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="43"/>
     </row>
     <row r="47" ht="16.2" spans="1:5">
       <c r="A47" s="3" t="s">
@@ -3111,30 +3073,30 @@
       <c r="C47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="44"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="73"/>
+      <c r="E48" s="55"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="72" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="73"/>
+      <c r="E49" s="55"/>
     </row>
     <row r="50" ht="16.2" spans="1:5">
       <c r="A50" s="3"/>
@@ -3155,16 +3117,16 @@
       <c r="C51" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="42" t="s">
+      <c r="C52" s="56"/>
+      <c r="D52" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="22"/>
@@ -3172,10 +3134,10 @@
     <row r="53" ht="16.2" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E53" s="30"/>
@@ -3184,7 +3146,7 @@
       <c r="A54" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -3201,16 +3163,16 @@
       <c r="C55" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="74"/>
+      <c r="E55" s="63"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="23"/>
       <c r="B56" s="25"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="42" t="s">
+      <c r="C56" s="56"/>
+      <c r="D56" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="22"/>
@@ -3218,16 +3180,16 @@
     <row r="57" spans="1:4">
       <c r="A57" s="23"/>
       <c r="B57" s="25"/>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="58" ht="16.2" spans="1:4">
       <c r="A58" s="23"/>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3243,35 +3205,35 @@
       <c r="C59" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="23"/>
       <c r="B60" s="25"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="42" t="s">
+      <c r="C60" s="56"/>
+      <c r="D60" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E60" s="22"/>
     </row>
     <row r="61" ht="16.2" spans="1:5">
-      <c r="A61" s="75"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="25"/>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E61" s="30"/>
     </row>
     <row r="62" ht="16.2" spans="1:5">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3283,75 +3245,75 @@
       <c r="E62" s="30"/>
     </row>
     <row r="63" ht="16.2" spans="1:5">
-      <c r="A63" s="48"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="25"/>
       <c r="C63" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="74"/>
+      <c r="E63" s="63"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="48"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="25"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="42" t="s">
+      <c r="C64" s="56"/>
+      <c r="D64" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E64" s="22"/>
     </row>
     <row r="65" ht="16.2" spans="1:6">
-      <c r="A65" s="48"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="25"/>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="25"/>
     </row>
     <row r="66" ht="16.2" spans="1:5">
-      <c r="A66" s="48"/>
-      <c r="B66" s="49" t="s">
+      <c r="A66" s="23"/>
+      <c r="B66" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="45"/>
+      <c r="E66" s="44"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:4">
-      <c r="A67" s="48"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="25"/>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="72" t="s">
+      <c r="D67" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:5">
-      <c r="A68" s="48"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="25"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="72" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="54" t="s">
         <v>68</v>
       </c>
       <c r="E68" s="25"/>
     </row>
     <row r="69" ht="16.2" spans="1:6">
-      <c r="A69" s="48"/>
-      <c r="B69" s="46" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D69" s="29" t="s">
@@ -3361,9 +3323,9 @@
       <c r="F69" s="25"/>
     </row>
     <row r="70" ht="16.2" spans="1:6">
-      <c r="A70" s="48"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="25"/>
-      <c r="C70" s="50"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
         <v>17</v>
       </c>
@@ -3373,7 +3335,7 @@
       <c r="F70" s="25"/>
     </row>
     <row r="71" ht="16.2" spans="1:6">
-      <c r="A71" s="48"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="25"/>
       <c r="C71" s="21" t="s">
         <v>77</v>
@@ -3381,31 +3343,31 @@
       <c r="D71" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F71" s="25"/>
     </row>
     <row r="72" ht="16.2" spans="1:6">
-      <c r="A72" s="48"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="25"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="42" t="s">
+      <c r="D72" s="56"/>
+      <c r="E72" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F72" s="25"/>
     </row>
     <row r="73" ht="16.2" spans="1:6">
-      <c r="A73" s="48"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F73" s="25"/>
@@ -3414,7 +3376,7 @@
       <c r="A74" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3423,42 +3385,42 @@
       <c r="D74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="52"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="42" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="42" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" ht="16.2" spans="1:6">
       <c r="A78" s="3"/>
@@ -3468,10 +3430,10 @@
       <c r="C78" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="45"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="22"/>
     </row>
     <row r="79" ht="16.2" spans="1:6">
@@ -3481,47 +3443,47 @@
         <v>45</v>
       </c>
       <c r="D79" s="20"/>
-      <c r="E79" s="45"/>
+      <c r="E79" s="44"/>
       <c r="F79" s="22"/>
     </row>
     <row r="80" ht="16.2" spans="1:5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="42" t="s">
+      <c r="E80" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="47" t="s">
+      <c r="C81" s="46"/>
+      <c r="D81" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="72" t="s">
+      <c r="E81" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="72" t="s">
+      <c r="C82" s="46"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" ht="16.2" spans="1:9">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="47" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3537,58 +3499,58 @@
       <c r="I83" s="25"/>
     </row>
     <row r="84" ht="16.2" spans="1:9">
-      <c r="A84" s="48"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="47" t="s">
+      <c r="A84" s="23"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="62" t="s">
+      <c r="D84" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="63"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
     </row>
     <row r="85" ht="16.2" spans="1:9">
-      <c r="A85" s="48"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="77" t="s">
+      <c r="A85" s="23"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E85" s="78"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
     </row>
     <row r="86" ht="16.2" spans="1:9">
-      <c r="A86" s="48"/>
-      <c r="B86" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="55" t="s">
+      <c r="A86" s="23"/>
+      <c r="B86" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
     </row>
     <row r="87" ht="16.2" spans="1:9">
-      <c r="A87" s="48"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="50" t="s">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="50" t="s">
+      <c r="E87" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F87" s="29" t="s">
@@ -3599,11 +3561,11 @@
       <c r="I87" s="25"/>
     </row>
     <row r="88" ht="16.2" spans="1:9">
-      <c r="A88" s="48"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
         <v>17</v>
       </c>
@@ -3614,19 +3576,19 @@
       <c r="I88" s="25"/>
     </row>
     <row r="89" ht="16.2" spans="1:9">
-      <c r="A89" s="48"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="59" t="s">
-        <v>80</v>
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G89" s="21" t="s">
         <v>67</v>
@@ -3635,43 +3597,43 @@
       <c r="I89" s="25"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="48"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="59"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="59" t="s">
+      <c r="G90" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="60"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="59" t="s">
-        <v>83</v>
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="107" ht="16.2" spans="1:1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="52"/>
     </row>
     <row r="108" ht="16.2" spans="1:1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="52"/>
     </row>
     <row r="109" ht="16.2" spans="1:1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -3780,9 +3742,397 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="33.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.4" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="14.4" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" ht="16.2" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="16.2" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="16.2" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="16.2" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="16.2" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="16.2" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="16.2" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="14.4" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" ht="16.2" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="16.2" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" ht="16.2" spans="1:3">
+      <c r="A18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" ht="14.4" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" ht="16.2" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" ht="14.4" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" ht="14.4" spans="1:3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" ht="16.2" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" ht="16.2" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" ht="16.2" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+    </row>
+    <row r="33" ht="16.2" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" ht="16.2" spans="1:3">
+      <c r="A34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="43"/>
+    </row>
+    <row r="35" ht="16.2" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="55"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="55"/>
+    </row>
+    <row r="53" ht="16.2" spans="1:1">
+      <c r="A53" s="52"/>
+    </row>
+    <row r="54" ht="16.2" spans="1:1">
+      <c r="A54" s="52"/>
+    </row>
+    <row r="55" ht="16.2" spans="1:1">
+      <c r="A55" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A21:C22"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A31:C32"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"NOT_HANDLE,ROUNDING,KEEP_UP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>"TUMBLING_TIME_WINDOW,SLIDING_TIME_WINDOW,SLIDING_COUNT_WINDOW,STATUS_WINDOW,GLOBAL_WINDOW,SESSION_WINDOW,EVENT_WINDOW"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>"MILLS,SECOND,MINUTE,HOUR,DAY,WEEK,MONTH,QUARTER,YEAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
@@ -3982,14 +4332,14 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" ht="14.4" spans="1:3">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" ht="14.4" spans="1:3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -4039,7 +4389,7 @@
       </c>
       <c r="C30" s="20"/>
     </row>
-    <row r="31" ht="16.2" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31" s="19" t="s">
         <v>25</v>
       </c>
@@ -4111,7 +4461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="14.4" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>29</v>
       </c>
@@ -4127,19 +4477,19 @@
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="42"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" ht="16.2" spans="1:3">
       <c r="A40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="44"/>
+      <c r="C40" s="43"/>
     </row>
     <row r="41" ht="16.2" spans="1:4">
       <c r="A41" s="3" t="s">
@@ -4148,17 +4498,17 @@
       <c r="B41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="45"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" ht="16.2" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="30"/>
@@ -4166,7 +4516,7 @@
     <row r="43" ht="16.2" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="30"/>
@@ -4175,10 +4525,10 @@
       <c r="A44" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="30"/>
@@ -4186,64 +4536,64 @@
     <row r="45" spans="1:3">
       <c r="A45" s="23"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="23"/>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="23"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D47" s="22"/>
     </row>
     <row r="48" ht="16.2" spans="1:4">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D48" s="30"/>
     </row>
     <row r="49" ht="16.2" spans="1:5">
-      <c r="A49" s="48"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="25"/>
     </row>
     <row r="50" ht="16.2" spans="1:4">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
     </row>
     <row r="51" ht="16.2" spans="1:5">
-      <c r="A51" s="48"/>
-      <c r="B51" s="46" t="s">
+      <c r="A51" s="23"/>
+      <c r="B51" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="29" t="s">
@@ -4252,7 +4602,7 @@
       <c r="E51" s="25"/>
     </row>
     <row r="52" ht="16.2" spans="1:5">
-      <c r="A52" s="48"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="25"/>
       <c r="C52" s="21" t="s">
         <v>77</v>
@@ -4263,12 +4613,12 @@
       <c r="E52" s="25"/>
     </row>
     <row r="53" ht="16.2" spans="1:5">
-      <c r="A53" s="48"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="25"/>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="21" t="s">
         <v>69</v>
       </c>
       <c r="E53" s="25"/>
@@ -4277,23 +4627,23 @@
       <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="42" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" ht="16.2" spans="1:6">
       <c r="A56" s="3"/>
@@ -4303,10 +4653,10 @@
       <c r="C56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="45"/>
+      <c r="E56" s="44"/>
       <c r="F56" s="22"/>
     </row>
     <row r="57" ht="16.2" spans="1:6">
@@ -4316,27 +4666,27 @@
         <v>45</v>
       </c>
       <c r="D57" s="20"/>
-      <c r="E57" s="45"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" ht="16.2" spans="1:4">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" ht="16.2" spans="1:7">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="25"/>
@@ -4345,29 +4695,29 @@
       <c r="G59" s="25"/>
     </row>
     <row r="60" ht="16.2" spans="1:8">
-      <c r="A60" s="48"/>
-      <c r="B60" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="55" t="s">
+      <c r="A60" s="23"/>
+      <c r="B60" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="58"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
     <row r="61" ht="16.2" spans="1:8">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="50" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="29" t="s">
@@ -4377,47 +4727,47 @@
       <c r="H61" s="25"/>
     </row>
     <row r="62" ht="16.2" spans="1:8">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="59" t="s">
-        <v>80</v>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="59" t="s">
-        <v>83</v>
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" ht="16.2" spans="1:1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="52"/>
     </row>
     <row r="80" ht="16.2" spans="1:1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="52"/>
     </row>
     <row r="81" ht="16.2" spans="1:1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="47">
